--- a/src/Config/PBT.xlsx
+++ b/src/Config/PBT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="19">
   <si>
     <t>Section</t>
   </si>

--- a/src/Config/PBT.xlsx
+++ b/src/Config/PBT.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Eclipse\Projects\Work\GRAD.QAAutomation\src\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20580" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20580" windowHeight="11640" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PBT1" sheetId="1" r:id="rId1"/>
+    <sheet name="PBT2" sheetId="2" r:id="rId2"/>
+    <sheet name="PBT3" sheetId="3" r:id="rId3"/>
+    <sheet name="PBT4" sheetId="4" r:id="rId4"/>
+    <sheet name="PBT5" sheetId="5" r:id="rId5"/>
+    <sheet name="PBT6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="20">
   <si>
     <t>Section</t>
   </si>
@@ -45,13 +55,7 @@
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>Actual_Answer</t>
-  </si>
-  <si>
     <t>Topic</t>
-  </si>
-  <si>
-    <t>Actual_Topic</t>
   </si>
   <si>
     <t>Detail</t>
@@ -72,18 +76,26 @@
     <t>Global</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>VR Review Notes Practice Test 2</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>VR Review Notes Practice Test 3</t>
+  </si>
+  <si>
+    <t>VR Review Notes Practice Test 4</t>
+  </si>
+  <si>
+    <t>VR Review Notes Practice Test 5</t>
+  </si>
+  <si>
+    <t>VR Review Notes Practice Test 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,27 +509,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="23.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="7.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="6.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="6" max="6" style="2" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" style="2" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="8.38671875" collapsed="true"/>
-    <col min="10" max="16384" style="2" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="11" style="2" collapsed="1"/>
+    <col min="9" max="10" width="11" style="2"/>
+    <col min="11" max="16384" width="11" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,14 +549,8 @@
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -563,17 +570,11 @@
         <f>IF(D2=E2,"resp-correct","resp-inc")</f>
         <v>resp-inc</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -593,77 +594,59 @@
         <f t="shared" ref="F3:F41" si="0">IF(D3=E3,"resp-correct","resp-inc")</f>
         <v>resp-inc</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resp-correct</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resp-inc</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,17 +666,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -713,17 +690,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -743,17 +714,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -773,17 +738,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -803,17 +762,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -833,17 +786,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -863,17 +810,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -893,17 +834,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -923,17 +858,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -953,17 +882,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -983,17 +906,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1013,17 +930,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1043,17 +954,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1073,17 +978,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1103,17 +1002,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1133,17 +1026,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1163,17 +1050,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1193,17 +1074,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1223,17 +1098,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1253,17 +1122,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1283,17 +1146,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1313,17 +1170,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1343,17 +1194,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -1373,17 +1218,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1403,17 +1242,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1433,17 +1266,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1463,17 +1290,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1493,17 +1314,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1523,17 +1338,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1553,17 +1362,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -1583,17 +1386,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1613,17 +1410,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -1643,17 +1434,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1673,17 +1458,11 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -1703,17 +1482,11 @@
         <f t="shared" si="0"/>
         <v>resp-correct</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1733,14 +1506,8 @@
         <f t="shared" si="0"/>
         <v>resp-inc</v>
       </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>17</v>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1752,4 +1519,5049 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="11" style="2" collapsed="1"/>
+    <col min="9" max="10" width="11" style="2"/>
+    <col min="11" max="16384" width="11" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(D2=E2,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F41" si="0">IF(D3=E3,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="11" style="2" collapsed="1"/>
+    <col min="9" max="10" width="11" style="2"/>
+    <col min="11" max="16384" width="11" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(D2=E2,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F41" si="0">IF(D3=E3,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="11" style="2" collapsed="1"/>
+    <col min="9" max="10" width="11" style="2"/>
+    <col min="11" max="16384" width="11" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(D2=E2,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F41" si="0">IF(D3=E3,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="11" style="2" collapsed="1"/>
+    <col min="9" max="10" width="11" style="2"/>
+    <col min="11" max="16384" width="11" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(D2=E2,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F41" si="0">IF(D3=E3,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="11" style="2" collapsed="1"/>
+    <col min="9" max="10" width="11" style="2"/>
+    <col min="11" max="16384" width="11" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF(D2=E2,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F41" si="0">IF(D3=E3,"resp-correct","resp-inc")</f>
+        <v>resp-inc</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-correct</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>resp-inc</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>